--- a/優等卡牌 的副本.xlsx
+++ b/優等卡牌 的副本.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\抽卡程式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kusoa\OneDrive\Documents\GitHub\card-pack-simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="工作表4" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>知識卡</t>
-  </si>
-  <si>
-    <t>自然</t>
   </si>
   <si>
     <t>資料之火</t>
@@ -672,6 +669,10 @@
   <si>
     <t>耗能 (KN)</t>
   </si>
+  <si>
+    <t>程式</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1081,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:J98"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1141,26 +1142,26 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="5"/>
@@ -1188,26 +1189,26 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
+      <c r="C3" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="5"/>
@@ -1235,26 +1236,26 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
+      <c r="C4" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="5"/>
@@ -1282,26 +1283,26 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
+      <c r="C5" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5"/>
@@ -1329,26 +1330,26 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
+      <c r="C6" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
@@ -1376,26 +1377,26 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
+      <c r="C7" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="5"/>
@@ -1423,26 +1424,26 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
+      <c r="C8" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1470,26 +1471,26 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
+      <c r="C9" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1515,13 +1516,13 @@
         <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -1533,13 +1534,13 @@
         <v>3</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1564,13 +1565,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1582,13 +1583,13 @@
         <v>3</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1613,13 +1614,13 @@
         <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -1631,13 +1632,13 @@
         <v>4</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1662,13 +1663,13 @@
         <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6">
         <v>5</v>
@@ -1680,13 +1681,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1711,13 +1712,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6">
         <v>4</v>
@@ -1729,13 +1730,13 @@
         <v>6</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1760,13 +1761,13 @@
         <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6">
         <v>6</v>
@@ -1778,13 +1779,13 @@
         <v>6</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1809,13 +1810,13 @@
         <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6">
         <v>9</v>
@@ -1827,13 +1828,13 @@
         <v>7</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="J16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1890,25 +1891,25 @@
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="5"/>
@@ -1937,25 +1938,25 @@
         <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="5"/>
@@ -1984,25 +1985,25 @@
         <v>9</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="5"/>
@@ -2031,25 +2032,25 @@
         <v>9</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="5"/>
@@ -2078,25 +2079,25 @@
         <v>9</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="5"/>
@@ -2125,25 +2126,25 @@
         <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="7">
         <v>4</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="5"/>
@@ -2172,25 +2173,25 @@
         <v>9</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="7">
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
@@ -2219,25 +2220,25 @@
         <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="7">
         <v>3</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="5"/>
@@ -2266,25 +2267,25 @@
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="7">
         <v>6</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -2313,25 +2314,25 @@
         <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="7">
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="5"/>
@@ -2360,25 +2361,25 @@
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="7">
         <v>10</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -2404,13 +2405,13 @@
         <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
@@ -2422,10 +2423,10 @@
         <v>2</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -2451,13 +2452,13 @@
         <v>100</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -2469,10 +2470,10 @@
         <v>2</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2498,13 +2499,13 @@
         <v>100</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="7">
         <v>3</v>
@@ -2516,10 +2517,10 @@
         <v>2</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -2545,13 +2546,13 @@
         <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="7">
         <v>5</v>
@@ -2563,10 +2564,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
@@ -2624,25 +2625,25 @@
         <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I34" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="5"/>
@@ -2671,25 +2672,25 @@
         <v>9</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="7">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I35" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="5"/>
@@ -2718,25 +2719,25 @@
         <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="7">
         <v>5</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="5"/>
@@ -2765,25 +2766,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="7">
         <v>3</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I37" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="5"/>
@@ -2812,25 +2813,25 @@
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="7">
         <v>3</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="5"/>
@@ -2859,25 +2860,25 @@
         <v>9</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="7">
         <v>2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="5"/>
@@ -2906,25 +2907,25 @@
         <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="7">
         <v>4</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="5"/>
@@ -2953,25 +2954,25 @@
         <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -3000,25 +3001,25 @@
         <v>9</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E42" s="6">
         <v>10</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -3047,25 +3048,25 @@
         <v>9</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="6">
         <v>4</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -3094,25 +3095,25 @@
         <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="6">
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -3138,13 +3139,13 @@
         <v>100</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="7">
         <v>1</v>
@@ -3156,10 +3157,10 @@
         <v>3</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="5"/>
@@ -3185,13 +3186,13 @@
         <v>100</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46" s="7">
         <v>1</v>
@@ -3203,10 +3204,10 @@
         <v>5</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="5"/>
@@ -3232,13 +3233,13 @@
         <v>100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" s="7">
         <v>6</v>
@@ -3250,10 +3251,10 @@
         <v>5</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="5"/>
@@ -3279,13 +3280,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="6">
         <v>7</v>
@@ -3297,10 +3298,10 @@
         <v>7</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -3355,13 +3356,13 @@
         <v>100</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="E50" s="9">
         <v>7</v>
@@ -3373,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -3407,10 +3408,10 @@
         <v>9</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51" s="7">
         <v>5</v>
@@ -3418,13 +3419,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -3452,10 +3453,10 @@
         <v>9</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="9">
         <v>1</v>
@@ -3463,13 +3464,13 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -3497,28 +3498,28 @@
         <v>9</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="7">
         <v>0</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -3546,25 +3547,25 @@
         <v>9</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" s="9">
         <v>2</v>
       </c>
       <c r="F54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I54" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
@@ -3593,28 +3594,28 @@
         <v>9</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
       </c>
       <c r="F55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="I55" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
@@ -3642,10 +3643,10 @@
         <v>9</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
@@ -3653,10 +3654,10 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -3685,10 +3686,10 @@
         <v>9</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" s="7">
         <v>1</v>
@@ -3696,13 +3697,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
@@ -3730,10 +3731,10 @@
         <v>9</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="7">
         <v>2</v>
@@ -3741,13 +3742,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
@@ -3775,10 +3776,10 @@
         <v>9</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="7">
         <v>4</v>
@@ -3786,13 +3787,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
@@ -3817,13 +3818,13 @@
         <v>100</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="7">
         <v>4</v>
@@ -3835,13 +3836,13 @@
         <v>3</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
@@ -3866,13 +3867,13 @@
         <v>100</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="7">
         <v>2</v>
@@ -3884,13 +3885,13 @@
         <v>2</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
@@ -3915,13 +3916,13 @@
         <v>100</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="7">
         <v>2</v>
@@ -3933,13 +3934,13 @@
         <v>4</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
@@ -3964,13 +3965,13 @@
         <v>100</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" s="7">
         <v>3</v>
@@ -3982,13 +3983,13 @@
         <v>4</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
@@ -4013,13 +4014,13 @@
         <v>50</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="9">
         <v>8</v>
@@ -4031,13 +4032,13 @@
         <v>9</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -4060,19 +4061,19 @@
     <row r="65" spans="1:27">
       <c r="A65" s="5"/>
       <c r="B65" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="D65" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
@@ -4099,13 +4100,13 @@
         <v>100</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E66" s="6">
         <v>1</v>
@@ -4117,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="H66" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -4146,13 +4147,13 @@
         <v>100</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="6">
         <v>1</v>
@@ -4164,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -4193,13 +4194,13 @@
         <v>100</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -4211,10 +4212,10 @@
         <v>2</v>
       </c>
       <c r="H68" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -4240,13 +4241,13 @@
         <v>100</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -4258,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="H69" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -4287,13 +4288,13 @@
         <v>100</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -4305,10 +4306,10 @@
         <v>2</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -4334,13 +4335,13 @@
         <v>100</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" s="6">
         <v>3</v>
@@ -4352,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -4381,13 +4382,13 @@
         <v>100</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="6">
         <v>3</v>
@@ -4399,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="H72" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -4428,13 +4429,13 @@
         <v>100</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="6">
         <v>4</v>
@@ -4446,10 +4447,10 @@
         <v>2</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -4475,13 +4476,13 @@
         <v>100</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" s="6">
         <v>4</v>
@@ -4493,10 +4494,10 @@
         <v>4</v>
       </c>
       <c r="H74" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -4522,13 +4523,13 @@
         <v>100</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75" s="6">
         <v>4</v>
@@ -4540,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
@@ -4601,10 +4602,10 @@
         <v>9</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E77" s="6">
         <v>0</v>
@@ -4613,7 +4614,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -4642,10 +4643,10 @@
         <v>9</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E78" s="6">
         <v>2</v>
@@ -4654,7 +4655,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -4683,10 +4684,10 @@
         <v>9</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -4695,7 +4696,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -4724,10 +4725,10 @@
         <v>9</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E80" s="6">
         <v>3</v>
@@ -4735,10 +4736,10 @@
       <c r="F80" s="6"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -4767,10 +4768,10 @@
         <v>9</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81" s="6">
         <v>3</v>
@@ -4778,10 +4779,10 @@
       <c r="F81" s="6"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -4810,10 +4811,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E82" s="6">
         <v>3</v>
@@ -4821,10 +4822,10 @@
       <c r="F82" s="6"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -4853,10 +4854,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E83" s="6">
         <v>3</v>
@@ -4864,10 +4865,10 @@
       <c r="F83" s="6"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -4896,10 +4897,10 @@
         <v>9</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E84" s="6">
         <v>3</v>
@@ -4907,10 +4908,10 @@
       <c r="F84" s="6"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -4939,10 +4940,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E85" s="6">
         <v>3</v>
@@ -4950,10 +4951,10 @@
       <c r="F85" s="6"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -4982,10 +4983,10 @@
         <v>9</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E86" s="6">
         <v>3</v>
@@ -4993,10 +4994,10 @@
       <c r="F86" s="6"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -5025,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E87" s="6">
         <v>3</v>
@@ -5036,10 +5037,10 @@
       <c r="F87" s="6"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -5068,10 +5069,10 @@
         <v>9</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" s="6">
         <v>3</v>
@@ -5079,10 +5080,10 @@
       <c r="F88" s="6"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -5111,10 +5112,10 @@
         <v>9</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E89" s="6">
         <v>3</v>
@@ -5122,10 +5123,10 @@
       <c r="F89" s="6"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -5154,10 +5155,10 @@
         <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E90" s="6">
         <v>3</v>
@@ -5165,10 +5166,10 @@
       <c r="F90" s="6"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -5197,10 +5198,10 @@
         <v>9</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91" s="6">
         <v>3</v>
@@ -5208,10 +5209,10 @@
       <c r="F91" s="6"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -5240,10 +5241,10 @@
         <v>9</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E92" s="6">
         <v>3</v>
@@ -5251,10 +5252,10 @@
       <c r="F92" s="6"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -5283,10 +5284,10 @@
         <v>9</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E93" s="6">
         <v>3</v>
@@ -5294,10 +5295,10 @@
       <c r="F93" s="6"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -5326,10 +5327,10 @@
         <v>9</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E94" s="6">
         <v>3</v>
@@ -5337,10 +5338,10 @@
       <c r="F94" s="6"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -5366,10 +5367,10 @@
         <v>50</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="E95" s="14">
         <v>2</v>
@@ -5378,7 +5379,7 @@
       <c r="G95" s="14"/>
       <c r="H95" s="5"/>
       <c r="I95" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -5404,10 +5405,10 @@
         <v>50</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E96" s="14">
         <v>2</v>
@@ -5416,7 +5417,7 @@
       <c r="G96" s="14"/>
       <c r="H96" s="5"/>
       <c r="I96" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -5442,10 +5443,10 @@
         <v>50</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E97" s="14">
         <v>2</v>
@@ -5454,7 +5455,7 @@
       <c r="G97" s="14"/>
       <c r="H97" s="5"/>
       <c r="I97" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -5480,10 +5481,10 @@
         <v>50</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E98" s="14">
         <v>2</v>
@@ -5492,7 +5493,7 @@
       <c r="G98" s="14"/>
       <c r="H98" s="5"/>
       <c r="I98" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -31693,7 +31694,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -31706,38 +31707,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>216</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="D2" s="14">
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="14">
         <v>2</v>
@@ -31747,16 +31748,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="14">
         <v>2</v>
@@ -31766,16 +31767,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="14">
         <v>2</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F4" s="14">
         <v>2</v>
@@ -31785,16 +31786,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="14">
         <v>2</v>

--- a/優等卡牌 的副本.xlsx
+++ b/優等卡牌 的副本.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表4" sheetId="1" r:id="rId1"/>
+    <sheet name="遊戲卡片" sheetId="1" r:id="rId1"/>
     <sheet name="英雄卡" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="258">
   <si>
     <t>類型</t>
   </si>
@@ -673,12 +673,359 @@
     <t>程式</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>卡池分類</t>
+  </si>
+  <si>
+    <t>基礎包</t>
+  </si>
+  <si>
+    <t>羅馬文學朗誦者</t>
+  </si>
+  <si>
+    <t>古典辯證法</t>
+  </si>
+  <si>
+    <t>字源追蹤者</t>
+  </si>
+  <si>
+    <t>羅馬英語演說術</t>
+  </si>
+  <si>
+    <t>軍團計算兵</t>
+  </si>
+  <si>
+    <t>陣型運算</t>
+  </si>
+  <si>
+    <t>操場奔馳者</t>
+  </si>
+  <si>
+    <t>工坊助手</t>
+  </si>
+  <si>
+    <t>課堂紀錄員</t>
+  </si>
+  <si>
+    <t>新兵訓練長</t>
+  </si>
+  <si>
+    <t>演練教官</t>
+  </si>
+  <si>
+    <t>觀察實驗員</t>
+  </si>
+  <si>
+    <t>百夫長</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>戰吼：若你手中有知識卡（須向對手展示），抽一張牌。</t>
+  </si>
+  <si>
+    <t>選擇一名敵方學生，使其下回合無法攻擊。若該學生為非【羅馬人】，沉默它（失去能力）。</t>
+  </si>
+  <si>
+    <t>每當你打出知識卡，恢復你的英雄1點生命。</t>
+  </si>
+  <si>
+    <t>本回合中，所有你打出的學生卡獲得：戰吼：抽一張卡。</t>
+  </si>
+  <si>
+    <t>戰吼：若你控制另一名羅馬人，獲得+1攻擊。</t>
+  </si>
+  <si>
+    <t>嘲諷</t>
+  </si>
+  <si>
+    <t>衝鋒</t>
+  </si>
+  <si>
+    <t>戰吼：你抽一張牌。</t>
+  </si>
+  <si>
+    <t>你每打出一張知識卡，恢復1點英雄生命。</t>
+  </si>
+  <si>
+    <t>被動：每回合第一次打出知識卡時，抽一張牌。</t>
+  </si>
+  <si>
+    <t>衝鋒。此卡每擊殺一個單位，獲得+1攻擊。</t>
+  </si>
+  <si>
+    <t>戰吼：所有友方學生獲得「嘲諷」或「+2攻擊」擇一。</t>
+  </si>
+  <si>
+    <t>羅馬人</t>
+  </si>
+  <si>
+    <t>羅馬戰士體驗營</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被動：每當一名友方【羅馬人】獲得護甲，此卡也獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>血量。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>召喚一名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>羅馬士兵。若你場上已有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名以上【羅馬人】，改為召喚一名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>羅馬軍官。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使所有友方【羅馬人】學生獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>護甲。抽一張卡。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>戰吼：召喚一名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1/1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>羅馬士兵。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的其他【羅馬人】獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻擊。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被動：你的每個【羅馬人】學生獲得「此單位受到傷害後，恢復</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>點生命」。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖子甲演示教具</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>盔甲構造觀察員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌學徒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬥技場冠軍</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅馬學院總督</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -756,19 +1103,36 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -808,10 +1172,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -843,9 +1208,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -862,9 +1224,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,11 +1463,15 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="44.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
@@ -1117,7 +1502,9 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="19" t="s">
+        <v>217</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -1142,7 +1529,7 @@
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1164,7 +1551,9 @@
         <v>13</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1189,7 +1578,7 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1211,7 +1600,9 @@
         <v>15</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1236,7 +1627,7 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1258,7 +1649,9 @@
         <v>17</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1283,7 +1676,7 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1305,7 +1698,9 @@
         <v>20</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1330,7 +1725,7 @@
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1352,7 +1747,9 @@
         <v>22</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1377,7 +1774,7 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1399,7 +1796,9 @@
         <v>24</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1424,7 +1823,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1446,7 +1845,9 @@
         <v>26</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1471,7 +1872,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1493,7 +1894,9 @@
         <v>29</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1518,7 +1921,7 @@
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1542,7 +1945,9 @@
       <c r="J10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1567,7 +1972,7 @@
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1591,7 +1996,9 @@
       <c r="J11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1616,7 +2023,7 @@
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1640,7 +2047,9 @@
       <c r="J12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1665,7 +2074,7 @@
       <c r="B13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1689,7 +2098,9 @@
       <c r="J13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1714,7 +2125,7 @@
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1738,7 +2149,9 @@
       <c r="J14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1763,7 +2176,7 @@
       <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1787,7 +2200,9 @@
       <c r="J15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1812,7 +2227,7 @@
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1836,7 +2251,9 @@
       <c r="J16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1865,7 +2282,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1912,7 +2329,9 @@
         <v>49</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1959,7 +2378,9 @@
         <v>51</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2006,7 +2427,9 @@
         <v>53</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2053,7 +2476,9 @@
         <v>55</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2100,7 +2525,9 @@
         <v>57</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2147,7 +2574,9 @@
         <v>59</v>
       </c>
       <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -2194,7 +2623,9 @@
         <v>61</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -2241,7 +2672,9 @@
         <v>63</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -2288,7 +2721,9 @@
         <v>65</v>
       </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -2335,7 +2770,9 @@
         <v>67</v>
       </c>
       <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -2382,7 +2819,9 @@
         <v>69</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -2429,7 +2868,9 @@
         <v>71</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2476,7 +2917,9 @@
         <v>73</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2523,7 +2966,9 @@
         <v>75</v>
       </c>
       <c r="J31" s="6"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -2570,7 +3015,9 @@
         <v>77</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -2599,7 +3046,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -2646,7 +3093,9 @@
         <v>80</v>
       </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
+      <c r="K34" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -2693,7 +3142,9 @@
         <v>82</v>
       </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -2740,7 +3191,9 @@
         <v>84</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -2787,7 +3240,9 @@
         <v>86</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -2834,7 +3289,9 @@
         <v>88</v>
       </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -2881,7 +3338,9 @@
         <v>90</v>
       </c>
       <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -2928,7 +3387,9 @@
         <v>92</v>
       </c>
       <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -2975,7 +3436,9 @@
         <v>94</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3022,7 +3485,9 @@
         <v>96</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3069,7 +3534,9 @@
         <v>98</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="K43" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3116,7 +3583,9 @@
         <v>100</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -3163,7 +3632,9 @@
         <v>102</v>
       </c>
       <c r="J45" s="7"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3210,7 +3681,9 @@
         <v>104</v>
       </c>
       <c r="J46" s="7"/>
-      <c r="K46" s="5"/>
+      <c r="K46" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -3257,7 +3730,9 @@
         <v>106</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
+      <c r="K47" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -3304,7 +3779,9 @@
         <v>108</v>
       </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="K48" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -3333,7 +3810,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -3382,7 +3859,9 @@
       <c r="J50" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K50" s="10"/>
+      <c r="K50" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -3427,7 +3906,9 @@
       <c r="J51" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -3472,7 +3953,9 @@
       <c r="J52" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K52" s="10"/>
+      <c r="K52" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -3521,7 +4004,9 @@
       <c r="J53" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K53" s="10"/>
+      <c r="K53" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -3568,7 +4053,9 @@
         <v>123</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="10"/>
+      <c r="K54" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -3617,7 +4104,9 @@
       <c r="J55" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="K55" s="10"/>
+      <c r="K55" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -3660,7 +4149,9 @@
         <v>127</v>
       </c>
       <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+      <c r="K56" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -3705,7 +4196,9 @@
       <c r="J57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K57" s="10"/>
+      <c r="K57" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -3750,7 +4243,9 @@
       <c r="J58" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K58" s="10"/>
+      <c r="K58" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -3795,7 +4290,9 @@
       <c r="J59" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K59" s="10"/>
+      <c r="K59" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -3844,7 +4341,9 @@
       <c r="J60" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K60" s="10"/>
+      <c r="K60" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -3893,7 +4392,9 @@
       <c r="J61" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K61" s="10"/>
+      <c r="K61" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
@@ -3942,7 +4443,9 @@
       <c r="J62" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K62" s="10"/>
+      <c r="K62" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -3991,7 +4494,9 @@
       <c r="J63" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K63" s="10"/>
+      <c r="K63" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -4040,7 +4545,9 @@
       <c r="J64" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K64" s="10"/>
+      <c r="K64" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
@@ -4077,7 +4584,9 @@
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="K65" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -4117,17 +4626,19 @@
       <c r="G66" s="6">
         <v>2</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>147</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="K66" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="19"/>
+      <c r="N66" s="18"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -4164,17 +4675,19 @@
       <c r="G67" s="6">
         <v>1</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>149</v>
       </c>
       <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="K67" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="19"/>
+      <c r="N67" s="18"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
@@ -4211,17 +4724,19 @@
       <c r="G68" s="6">
         <v>2</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>151</v>
       </c>
       <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="19"/>
+      <c r="N68" s="18"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -4258,17 +4773,19 @@
       <c r="G69" s="6">
         <v>1</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>153</v>
       </c>
       <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="K69" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="19"/>
+      <c r="N69" s="18"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
@@ -4305,17 +4822,19 @@
       <c r="G70" s="6">
         <v>2</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="K70" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="19"/>
+      <c r="N70" s="18"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
@@ -4352,17 +4871,19 @@
       <c r="G71" s="6">
         <v>1</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>157</v>
       </c>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="19"/>
+      <c r="N71" s="18"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
@@ -4399,17 +4920,19 @@
       <c r="G72" s="6">
         <v>3</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>159</v>
       </c>
       <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="K72" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L72" s="23"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="19"/>
+      <c r="N72" s="18"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
@@ -4446,17 +4969,19 @@
       <c r="G73" s="6">
         <v>2</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>161</v>
       </c>
       <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="11"/>
+      <c r="K73" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L73" s="24"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="19"/>
+      <c r="N73" s="18"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
@@ -4493,17 +5018,19 @@
       <c r="G74" s="6">
         <v>4</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="18" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>163</v>
       </c>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="K74" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="L74" s="23"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="19"/>
+      <c r="N74" s="18"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
@@ -4540,17 +5067,19 @@
       <c r="G75" s="6">
         <v>1</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="18" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>165</v>
       </c>
       <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="K75" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="19"/>
+      <c r="N75" s="18"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -4576,7 +5105,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="K76" s="19"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -4617,7 +5146,9 @@
         <v>167</v>
       </c>
       <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="K77" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -4658,7 +5189,9 @@
         <v>169</v>
       </c>
       <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="K78" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -4695,11 +5228,13 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="11" t="s">
         <v>171</v>
       </c>
       <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="K79" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -4742,7 +5277,9 @@
         <v>173</v>
       </c>
       <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -4785,7 +5322,9 @@
         <v>175</v>
       </c>
       <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="K81" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -4828,7 +5367,9 @@
         <v>177</v>
       </c>
       <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="K82" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4871,7 +5412,9 @@
         <v>179</v>
       </c>
       <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="K83" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -4914,7 +5457,9 @@
         <v>181</v>
       </c>
       <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="K84" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -4957,7 +5502,9 @@
         <v>183</v>
       </c>
       <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="K85" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -5000,7 +5547,9 @@
         <v>185</v>
       </c>
       <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="K86" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -5043,7 +5592,9 @@
         <v>187</v>
       </c>
       <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="K87" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -5086,7 +5637,9 @@
         <v>189</v>
       </c>
       <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="K88" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -5129,7 +5682,9 @@
         <v>191</v>
       </c>
       <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="K89" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -5172,7 +5727,9 @@
         <v>193</v>
       </c>
       <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="K90" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -5215,7 +5772,9 @@
         <v>195</v>
       </c>
       <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="K91" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -5258,7 +5817,9 @@
         <v>197</v>
       </c>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="K92" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -5301,7 +5862,9 @@
         <v>199</v>
       </c>
       <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="K93" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -5344,7 +5907,9 @@
         <v>201</v>
       </c>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="K94" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -5363,24 +5928,15 @@
       <c r="AA94" s="5"/>
     </row>
     <row r="95" spans="1:27">
-      <c r="A95" s="6">
-        <v>50</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="14">
-        <v>2</v>
-      </c>
-      <c r="F95" s="15"/>
-      <c r="G95" s="14"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="22"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="15" t="s">
-        <v>204</v>
-      </c>
+      <c r="I95" s="14"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -5400,27 +5956,38 @@
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" spans="1:27">
-      <c r="A96" s="6">
-        <v>50</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E96" s="14">
+    <row r="96" spans="1:27" ht="15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="26">
         <v>2</v>
       </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="F96" s="26">
+        <v>2</v>
+      </c>
+      <c r="G96" s="26">
+        <v>3</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -5438,27 +6005,32 @@
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="1:27">
-      <c r="A97" s="6">
-        <v>50</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" s="14">
+    <row r="97" spans="1:27" ht="15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" s="26">
         <v>2</v>
       </c>
-      <c r="F97" s="15"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J97" s="26"/>
+      <c r="K97" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -5476,27 +6048,36 @@
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" spans="1:27">
-      <c r="A98" s="6">
-        <v>50</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="14">
+    <row r="98" spans="1:27" ht="15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="26">
+        <v>3</v>
+      </c>
+      <c r="F98" s="26">
         <v>2</v>
       </c>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="G98" s="26">
+        <v>4</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J98" s="26"/>
+      <c r="K98" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -5514,21 +6095,32 @@
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" spans="1:27" ht="12.75">
-      <c r="A99" s="5">
-        <f>SUM(A2:A98)</f>
-        <v>8750</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+    <row r="99" spans="1:27" ht="15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="26">
+        <v>3</v>
+      </c>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J99" s="26"/>
+      <c r="K99" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -5546,18 +6138,38 @@
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="1:27" ht="12.75">
+    <row r="100" spans="1:27" ht="15">
       <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="B100" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="26">
+        <v>2</v>
+      </c>
+      <c r="F100" s="26">
+        <v>3</v>
+      </c>
+      <c r="G100" s="26">
+        <v>2</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J100" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -5575,18 +6187,32 @@
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" spans="1:27" ht="12.75">
+    <row r="101" spans="1:27" ht="15">
       <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="B101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" s="26">
+        <v>3</v>
+      </c>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J101" s="26"/>
+      <c r="K101" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -5604,21 +6230,36 @@
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
     </row>
-    <row r="102" spans="1:27" ht="12.75">
+    <row r="102" spans="1:27" ht="15">
       <c r="A102" s="5"/>
-      <c r="B102" s="5">
-        <f>8750*0.4</f>
-        <v>3500</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="B102" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" s="26">
+        <v>2</v>
+      </c>
+      <c r="F102" s="26">
+        <v>1</v>
+      </c>
+      <c r="G102" s="26">
+        <v>4</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J102" s="26"/>
+      <c r="K102" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -5636,21 +6277,32 @@
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
     </row>
-    <row r="103" spans="1:27" ht="12.75">
+    <row r="103" spans="1:27" ht="15">
       <c r="A103" s="5"/>
-      <c r="B103" s="5">
-        <f>B102*4.5</f>
-        <v>15750</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="B103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="26">
+        <v>2</v>
+      </c>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J103" s="26"/>
+      <c r="K103" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -5668,18 +6320,38 @@
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
     </row>
-    <row r="104" spans="1:27" ht="12.75">
+    <row r="104" spans="1:27" ht="15">
       <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="B104" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" s="26">
+        <v>1</v>
+      </c>
+      <c r="F104" s="26">
+        <v>1</v>
+      </c>
+      <c r="G104" s="26">
+        <v>2</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J104" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -5697,18 +6369,36 @@
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
     </row>
-    <row r="105" spans="1:27" ht="12.75">
+    <row r="105" spans="1:27" ht="15">
       <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="B105" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="26">
+        <v>2</v>
+      </c>
+      <c r="F105" s="26">
+        <v>3</v>
+      </c>
+      <c r="G105" s="26">
+        <v>1</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J105" s="26"/>
+      <c r="K105" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -5726,18 +6416,36 @@
       <c r="Z105" s="5"/>
       <c r="AA105" s="5"/>
     </row>
-    <row r="106" spans="1:27" ht="12.75">
+    <row r="106" spans="1:27" ht="15">
       <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="B106" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" s="26">
+        <v>2</v>
+      </c>
+      <c r="F106" s="26">
+        <v>1</v>
+      </c>
+      <c r="G106" s="26">
+        <v>3</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J106" s="26"/>
+      <c r="K106" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -5755,18 +6463,36 @@
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
     </row>
-    <row r="107" spans="1:27" ht="12.75">
+    <row r="107" spans="1:27" ht="15">
       <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="B107" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E107" s="26">
+        <v>3</v>
+      </c>
+      <c r="F107" s="26">
+        <v>2</v>
+      </c>
+      <c r="G107" s="26">
+        <v>4</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J107" s="26"/>
+      <c r="K107" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -5784,18 +6510,38 @@
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
     </row>
-    <row r="108" spans="1:27" ht="12.75">
+    <row r="108" spans="1:27" ht="15">
       <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="B108" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E108" s="26">
+        <v>3</v>
+      </c>
+      <c r="F108" s="26">
+        <v>2</v>
+      </c>
+      <c r="G108" s="26">
+        <v>3</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J108" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -5813,18 +6559,38 @@
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
     </row>
-    <row r="109" spans="1:27" ht="12.75">
+    <row r="109" spans="1:27" ht="15">
       <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="B109" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E109" s="26">
+        <v>4</v>
+      </c>
+      <c r="F109" s="26">
+        <v>3</v>
+      </c>
+      <c r="G109" s="26">
+        <v>4</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J109" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -5842,18 +6608,36 @@
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
     </row>
-    <row r="110" spans="1:27" ht="12.75">
+    <row r="110" spans="1:27" ht="15">
       <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="B110" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E110" s="26">
+        <v>4</v>
+      </c>
+      <c r="F110" s="26">
+        <v>2</v>
+      </c>
+      <c r="G110" s="26">
+        <v>5</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J110" s="26"/>
+      <c r="K110" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -5871,18 +6655,38 @@
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="1:27" ht="12.75">
+    <row r="111" spans="1:27" ht="15">
       <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="B111" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E111" s="26">
+        <v>5</v>
+      </c>
+      <c r="F111" s="26">
+        <v>5</v>
+      </c>
+      <c r="G111" s="26">
+        <v>4</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J111" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -5900,18 +6704,38 @@
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
     </row>
-    <row r="112" spans="1:27" ht="12.75">
+    <row r="112" spans="1:27" ht="15">
       <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="B112" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="26">
+        <v>6</v>
+      </c>
+      <c r="F112" s="26">
+        <v>4</v>
+      </c>
+      <c r="G112" s="26">
+        <v>6</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J112" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -5929,18 +6753,38 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
     </row>
-    <row r="113" spans="1:27" ht="12.75">
+    <row r="113" spans="1:27" ht="15">
       <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="B113" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="26">
+        <v>7</v>
+      </c>
+      <c r="F113" s="26">
+        <v>6</v>
+      </c>
+      <c r="G113" s="26">
+        <v>7</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I113" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J113" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -31706,41 +32550,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
       <c r="G2" s="6"/>
@@ -31750,16 +32594,16 @@
       <c r="A3" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="6"/>
@@ -31769,16 +32613,16 @@
       <c r="A4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>2</v>
       </c>
       <c r="G4" s="6"/>
@@ -31788,32 +32632,32 @@
       <c r="A5" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>2</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="H6" s="18"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="H8" s="18"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/優等卡牌 的副本.xlsx
+++ b/優等卡牌 的副本.xlsx
@@ -781,6 +781,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+1</t>
@@ -807,6 +808,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1/3</t>
@@ -827,6 +829,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -847,6 +850,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3/3</t>
@@ -881,6 +885,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> +1 </t>
@@ -915,6 +920,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1/1 </t>
@@ -949,6 +955,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> +1 </t>
@@ -983,6 +990,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>

--- a/優等卡牌 的副本.xlsx
+++ b/優等卡牌 的副本.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="259">
   <si>
     <t>類型</t>
   </si>
@@ -683,19 +683,10 @@
     <t>羅馬文學朗誦者</t>
   </si>
   <si>
-    <t>古典辯證法</t>
-  </si>
-  <si>
     <t>字源追蹤者</t>
   </si>
   <si>
-    <t>羅馬英語演說術</t>
-  </si>
-  <si>
     <t>軍團計算兵</t>
-  </si>
-  <si>
-    <t>陣型運算</t>
   </si>
   <si>
     <t>操場奔馳者</t>
@@ -707,40 +698,16 @@
     <t>課堂紀錄員</t>
   </si>
   <si>
-    <t>新兵訓練長</t>
-  </si>
-  <si>
-    <t>演練教官</t>
-  </si>
-  <si>
-    <t>觀察實驗員</t>
-  </si>
-  <si>
-    <t>百夫長</t>
-  </si>
-  <si>
     <t>自然</t>
   </si>
   <si>
     <t>戰吼：若你手中有知識卡（須向對手展示），抽一張牌。</t>
   </si>
   <si>
-    <t>選擇一名敵方學生，使其下回合無法攻擊。若該學生為非【羅馬人】，沉默它（失去能力）。</t>
-  </si>
-  <si>
     <t>每當你打出知識卡，恢復你的英雄1點生命。</t>
   </si>
   <si>
-    <t>本回合中，所有你打出的學生卡獲得：戰吼：抽一張卡。</t>
-  </si>
-  <si>
-    <t>戰吼：若你控制另一名羅馬人，獲得+1攻擊。</t>
-  </si>
-  <si>
     <t>嘲諷</t>
-  </si>
-  <si>
-    <t>衝鋒</t>
   </si>
   <si>
     <t>戰吼：你抽一張牌。</t>
@@ -749,19 +716,70 @@
     <t>你每打出一張知識卡，恢復1點英雄生命。</t>
   </si>
   <si>
-    <t>被動：每回合第一次打出知識卡時，抽一張牌。</t>
+    <t>羅馬戰士體驗營</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>衝鋒。此卡每擊殺一個單位，獲得+1攻擊。</t>
+    <t>盔甲構造觀察員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>戰吼：所有友方學生獲得「嘲諷」或「+2攻擊」擇一。</t>
+    <t>盾牌學徒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>羅馬人</t>
+    <t>鬥技場冠軍</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>羅馬戰士體驗營</t>
+    <t>羅馬學院總督</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新兵訓練長</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>戰吼：召喚一名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1/1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>羅馬士兵。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>演練教官</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀察實驗員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>被動：每回合第一次打出知識卡時，抽一張牌。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -774,14 +792,13 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>被動：每當一名友方【羅馬人】獲得護甲，此卡也獲得</t>
+      <t>衝鋒。此卡每擊殺一個單位，獲得</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+1</t>
@@ -795,77 +812,12 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>血量。</t>
+      <t>攻擊。</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>召喚一名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1/3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>羅馬士兵。若你場上已有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名以上【羅馬人】，改為召喚一名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3/3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>羅馬軍官。</t>
-    </r>
+    <t>百夫長</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -878,7 +830,88 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>使所有友方【羅馬人】學生獲得</t>
+      <t>戰吼：所有友方學生獲得「嘲諷」或「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻擊」擇一。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典辯證法</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合中，所有你打出的學生卡獲得：戰吼：抽一張卡。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅馬演說術</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎖子甲演示教具</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>陣型運算</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝鋒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>被動：你的每個【古代人】學生獲得「此單位受到傷害後，恢復</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>點生命」。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使所有友方【古代人】學生獲得</t>
     </r>
     <r>
       <rPr>
@@ -905,50 +938,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>戰吼：召喚一名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1/1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>羅馬士兵。</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>你的其他【羅馬人】獲得</t>
+      <t>你的其他【古代人】獲得</t>
     </r>
     <r>
       <rPr>
@@ -975,15 +965,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>被動：你的每個【羅馬人】學生獲得「此單位受到傷害後，恢復</t>
+      <t>被動：每當一名友方【古代人】獲得護甲，此卡也獲得</t>
     </r>
     <r>
       <rPr>
@@ -993,7 +975,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>+1</t>
     </r>
     <r>
       <rPr>
@@ -1004,28 +986,50 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>點生命」。</t>
+      <t>血量。</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>鎖子甲演示教具</t>
+    <t>召喚一名2/1/3羅馬士兵。若你場上已有2名以上【古代人】，改為召喚一名4/3/3羅馬士兵。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>盔甲構造觀察員</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>戰吼：若你控制另一名古代人，獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻擊。</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>盾牌學徒</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬥技場冠軍</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅馬學院總督</t>
+    <t>選擇一名敵方學生，使其下回合無法攻擊。若該學生為非【古代人】，沉默它（失去能力）。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1471,14 +1475,15 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="44.7109375" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
@@ -5988,13 +5993,13 @@
         <v>12</v>
       </c>
       <c r="I96" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="J96" s="26" t="s">
-        <v>245</v>
+        <v>226</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -6021,8 +6026,8 @@
       <c r="C97" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D97" s="25" t="s">
-        <v>220</v>
+      <c r="D97" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="E97" s="26">
         <v>2</v>
@@ -6032,12 +6037,12 @@
       <c r="H97" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I97" s="26" t="s">
-        <v>234</v>
+      <c r="I97" s="29" t="s">
+        <v>258</v>
       </c>
       <c r="J97" s="26"/>
       <c r="K97" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -6065,7 +6070,7 @@
         <v>47</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E98" s="26">
         <v>3</v>
@@ -6080,11 +6085,11 @@
         <v>12</v>
       </c>
       <c r="I98" s="26" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J98" s="26"/>
       <c r="K98" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -6111,8 +6116,8 @@
       <c r="C99" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="25" t="s">
-        <v>222</v>
+      <c r="D99" s="30" t="s">
+        <v>247</v>
       </c>
       <c r="E99" s="26">
         <v>3</v>
@@ -6122,12 +6127,12 @@
       <c r="H99" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I99" s="26" t="s">
-        <v>236</v>
+      <c r="I99" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="J99" s="26"/>
       <c r="K99" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -6155,7 +6160,7 @@
         <v>110</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E100" s="26">
         <v>2</v>
@@ -6169,14 +6174,14 @@
       <c r="H100" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="J100" s="26" t="s">
-        <v>245</v>
+      <c r="I100" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J100" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -6203,8 +6208,8 @@
       <c r="C101" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D101" s="25" t="s">
-        <v>224</v>
+      <c r="D101" s="30" t="s">
+        <v>249</v>
       </c>
       <c r="E101" s="26">
         <v>3</v>
@@ -6215,11 +6220,11 @@
         <v>19</v>
       </c>
       <c r="I101" s="29" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J101" s="26"/>
       <c r="K101" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -6244,10 +6249,10 @@
         <v>30</v>
       </c>
       <c r="C102" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="30" t="s">
         <v>232</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>254</v>
       </c>
       <c r="E102" s="26">
         <v>2</v>
@@ -6262,11 +6267,11 @@
         <v>12</v>
       </c>
       <c r="I102" s="29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J102" s="26"/>
       <c r="K102" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -6291,10 +6296,10 @@
         <v>9</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E103" s="26">
         <v>2</v>
@@ -6305,11 +6310,11 @@
         <v>19</v>
       </c>
       <c r="I103" s="29" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J103" s="26"/>
       <c r="K103" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
@@ -6337,7 +6342,7 @@
         <v>145</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="E104" s="26">
         <v>1</v>
@@ -6352,13 +6357,13 @@
         <v>12</v>
       </c>
       <c r="I104" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="J104" s="26" t="s">
-        <v>245</v>
+        <v>228</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -6386,7 +6391,7 @@
         <v>145</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E105" s="26">
         <v>2</v>
@@ -6400,12 +6405,12 @@
       <c r="H105" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I105" s="26" t="s">
-        <v>239</v>
+      <c r="I105" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="J105" s="26"/>
       <c r="K105" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
@@ -6433,7 +6438,7 @@
         <v>145</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E106" s="26">
         <v>2</v>
@@ -6448,11 +6453,11 @@
         <v>12</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="J106" s="26"/>
       <c r="K106" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -6480,7 +6485,7 @@
         <v>145</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E107" s="26">
         <v>3</v>
@@ -6495,11 +6500,11 @@
         <v>12</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J107" s="26"/>
       <c r="K107" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
@@ -6526,8 +6531,8 @@
       <c r="C108" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="25" t="s">
-        <v>228</v>
+      <c r="D108" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="E108" s="26">
         <v>3</v>
@@ -6542,13 +6547,13 @@
         <v>19</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="J108" s="26" t="s">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="J108" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
@@ -6575,8 +6580,8 @@
       <c r="C109" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D109" s="25" t="s">
-        <v>229</v>
+      <c r="D109" s="30" t="s">
+        <v>238</v>
       </c>
       <c r="E109" s="26">
         <v>4</v>
@@ -6591,13 +6596,13 @@
         <v>19</v>
       </c>
       <c r="I109" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J109" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="J109" s="26" t="s">
-        <v>245</v>
-      </c>
       <c r="K109" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
@@ -6624,8 +6629,8 @@
       <c r="C110" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D110" s="25" t="s">
-        <v>230</v>
+      <c r="D110" s="30" t="s">
+        <v>239</v>
       </c>
       <c r="E110" s="26">
         <v>4</v>
@@ -6636,15 +6641,15 @@
       <c r="G110" s="26">
         <v>5</v>
       </c>
-      <c r="H110" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I110" s="26" t="s">
-        <v>242</v>
+      <c r="H110" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I110" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="J110" s="26"/>
       <c r="K110" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
@@ -6672,7 +6677,7 @@
         <v>145</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E111" s="26">
         <v>5</v>
@@ -6686,14 +6691,14 @@
       <c r="H111" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I111" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J111" s="26" t="s">
-        <v>245</v>
+      <c r="I111" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J111" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
@@ -6720,8 +6725,8 @@
       <c r="C112" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D112" s="25" t="s">
-        <v>231</v>
+      <c r="D112" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="E112" s="26">
         <v>6</v>
@@ -6735,14 +6740,14 @@
       <c r="H112" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I112" s="26" t="s">
+      <c r="I112" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="J112" s="26" t="s">
-        <v>245</v>
+      <c r="J112" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -6770,7 +6775,7 @@
         <v>145</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E113" s="26">
         <v>7</v>
@@ -6787,11 +6792,11 @@
       <c r="I113" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="J113" s="26" t="s">
-        <v>245</v>
+      <c r="J113" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
